--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swati/Desktop/BreakOutSessionDec2024/AugFramework/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_details" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="courses_details" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="category_details" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="product_details" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="new_users" sheetId="5" r:id="rId1"/>
+    <sheet name="login_details" sheetId="1" r:id="rId2"/>
+    <sheet name="courses_details" sheetId="2" r:id="rId3"/>
+    <sheet name="category_details" sheetId="3" r:id="rId4"/>
+    <sheet name="product_details" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,28 +29,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin@email.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Intrest</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>ora20@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -53,28 +95,27 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,9 +128,15 @@
         <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -97,57 +144,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -206,62 +221,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -314,119 +345,168 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BB1766-F063-F049-BAE8-AE90D139D96C}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.49"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="admin@email.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="admin@123"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8468BFFF-410D-E940-9A44-BF200012341F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F8BEAB99-B7A8-114A-8DA5-FE7F42A6B7B4}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swati/Desktop/BreakOutSessionDec2024/AugFramework/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a21da591722a5a3/Desktop/ECLIPSE/SeleniumTraining_Jul/AugFramework/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3ECAA7-E6E3-49B1-9CDC-6D6C25D01F92}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_users" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>ora20@gmail.com</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
@@ -148,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -354,11 +370,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BB1766-F063-F049-BAE8-AE90D139D96C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
@@ -366,7 +382,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -389,7 +405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -427,12 +443,12 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -464,11 +480,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1234567891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -479,30 +537,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a21da591722a5a3/Desktop/ECLIPSE/SeleniumTraining_Jul/AugFramework/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3ECAA7-E6E3-49B1-9CDC-6D6C25D01F92}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C27AEB-B9FE-4D0E-A5E4-A0670FF48D1F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="24" windowWidth="22788" windowHeight="12216" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_users" sheetId="5" r:id="rId1"/>
     <sheet name="login_details" sheetId="1" r:id="rId2"/>
     <sheet name="courses_details" sheetId="2" r:id="rId3"/>
-    <sheet name="category_details" sheetId="3" r:id="rId4"/>
-    <sheet name="product_details" sheetId="4" r:id="rId5"/>
+    <sheet name="addCourse_details" sheetId="6" r:id="rId4"/>
+    <sheet name="category_details" sheetId="3" r:id="rId5"/>
+    <sheet name="product_details" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -95,13 +96,49 @@
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>C:\\Users\\PRADE\\OneDrive\\Desktop\\uploadFile.jpg</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Rithika</t>
+  </si>
+  <si>
+    <t>Start_dt</t>
+  </si>
+  <si>
+    <t>End_dt</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>InformaticaDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,6 +165,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -163,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +215,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -521,6 +565,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC087D-02D6-47C5-B3B7-1A69804AC6EC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -537,7 +653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a21da591722a5a3/Desktop/ECLIPSE/SeleniumTraining_Jul/AugFramework/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C27AEB-B9FE-4D0E-A5E4-A0670FF48D1F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98DD4E2A-5B88-4B66-B589-5827B1643AE1}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="24" windowWidth="22788" windowHeight="12216" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Hobbies</t>
   </si>
   <si>
-    <t>Himanshu</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>Cypress</t>
-  </si>
-  <si>
     <t>ora20@gmail.com</t>
   </si>
   <si>
@@ -132,13 +126,28 @@
   </si>
   <si>
     <t>InformaticaDB</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>NewCategory</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>ManualTesting</t>
+  </si>
+  <si>
+    <t>Susmitha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,6 +178,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -206,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,7 +431,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -451,25 +467,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -534,21 +550,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1234567891</v>
@@ -569,7 +585,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -581,42 +597,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>10000</v>
@@ -627,8 +643,8 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -638,12 +654,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a21da591722a5a3/Desktop/ECLIPSE/SeleniumTraining_Jul/AugFramework/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98DD4E2A-5B88-4B66-B589-5827B1643AE1}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08F7E01-6635-4CED-9D88-F997EDA28FCB}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="24" windowWidth="22788" windowHeight="12216" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,10 +137,10 @@
     <t>Informatica</t>
   </si>
   <si>
-    <t>ManualTesting</t>
-  </si>
-  <si>
     <t>Susmitha</t>
+  </si>
+  <si>
+    <t>Teamcity</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -476,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -585,7 +585,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a21da591722a5a3/Desktop/ECLIPSE/SeleniumTraining_Jul/AugFramework/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08F7E01-6635-4CED-9D88-F997EDA28FCB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7D8D4871-7BC0-2441-AA4F-9EB21D7C20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF7674E-0D63-44D5-BCCC-003273BDCFD7}"/>
   <bookViews>
     <workbookView xWindow="252" yWindow="24" windowWidth="22788" windowHeight="12216" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Teamcity</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
